--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\WPI\Sem 3\AI\project\SFcrimeHeatMap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="0" windowWidth="25120" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25125" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>d tree</t>
   </si>
@@ -67,6 +72,12 @@
   </si>
   <si>
     <t>3.433-01</t>
+  </si>
+  <si>
+    <t>Gradient Tree Boosting</t>
+  </si>
+  <si>
+    <t>Estimators =100</t>
   </si>
 </sst>
 </file>
@@ -131,6 +142,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,20 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -489,12 +508,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.1704999999999997</v>
       </c>
@@ -514,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.7069999999999999</v>
       </c>
@@ -534,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.16</v>
       </c>
@@ -554,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.33</v>
       </c>
@@ -574,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.49</v>
       </c>
@@ -594,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.51</v>
       </c>
@@ -614,12 +633,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.67</v>
       </c>
@@ -639,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.07</v>
       </c>
@@ -659,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.07</v>
       </c>
@@ -679,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.1447000000000003</v>
       </c>
@@ -699,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.0308999999999999</v>
       </c>
@@ -719,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.1322999999999999</v>
       </c>
@@ -739,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>3</v>
       </c>
@@ -750,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.1100000000000003</v>
       </c>
@@ -770,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.37</v>
       </c>
@@ -790,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.62</v>
       </c>
@@ -810,12 +829,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.56433</v>
       </c>
@@ -835,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.8377</v>
       </c>
@@ -855,12 +874,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>331.82</v>
       </c>
@@ -883,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>69.47</v>
       </c>
@@ -900,6 +919,132 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>850.52382999999998</v>
+      </c>
+      <c r="B32">
+        <v>0.24526999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.31363999999999997</v>
+      </c>
+      <c r="D32">
+        <v>0.25922000000000001</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>358.42939999999999</v>
+      </c>
+      <c r="B33">
+        <v>0.22508</v>
+      </c>
+      <c r="C33">
+        <v>0.32526100000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.27722999999999998</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>433.96850000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.28263700000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.32612999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.28680699999999998</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>415.63099999999997</v>
+      </c>
+      <c r="B35">
+        <v>0.28266999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.31479950000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.28545199999999998</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>525.22699999999998</v>
+      </c>
+      <c r="B36">
+        <v>0.27536100000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.30307000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.27910200000000002</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
